--- a/biology/Zoologie/Diamant_masqué/Diamant_masqué.xlsx
+++ b/biology/Zoologie/Diamant_masqué/Diamant_masqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diamant_masqu%C3%A9</t>
+          <t>Diamant_masqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poephila personata
 Le Diamant masqué (Poephila personata) est une espèce de passereau appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diamant_masqu%C3%A9</t>
+          <t>Diamant_masqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 12,5 à13,5 cm de longueur. Le mâle est plus grand que la femelle sinon les deux sexes sont similaires. Il est brun cannelle dessus, plus pâle dessous avec un croupion blanc, une tache noire sur les flancs et un masque noir. Il a un bec jaune et une queue noire pointue. La sous-espèce orientale P. p. leucotis a les joues blanchâtres.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diamant_masqu%C3%A9</t>
+          <t>Diamant_masqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en couple ou en petits groupes, fourrageant le jour, principalement sur le sol pour trouver des graines d'herbe. Le soir et tôt le matin, un grand nombre, parfois des milliers d'individus, peuvent se rassembler autour des points d'eau pour boire, se baigner, se lisser les plumes, battre des ailes et pépier sans cesse.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diamant_masqu%C3%A9</t>
+          <t>Diamant_masqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les couples construisent un nid d'herbes en dôme, doublé de fines herbes, de plumes et de charbon de bois à la fin de la saison des pluies ou au début de la saison sèche. La position du nid  : il peut être aussi bien perché à 20 mètres de haut que caché dans les hautes herbes. La femelle pond cinq à six œufs blancs.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diamant_masqu%C3%A9</t>
+          <t>Diamant_masqué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau résident commun de la savane sèche dans le nord de l'Australie, du Kimberley, le Top End, le golfe de Carpentarie et la partie méridionale de la péninsule du cap York, jusqu'à Chillagoe à l'est mais toujours près de l'eau.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diamant_masqu%C3%A9</t>
+          <t>Diamant_masqué</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon Avibase, cet oiseau est représenté par deux sous-espèces :
 Poephila personata personata Gould, 1842, localisée par un «A» à gauche sur la carte ci-haut ;
